--- a/数据整理/stocks/A股/深证主板/002081-金螳螂.xlsx
+++ b/数据整理/stocks/A股/深证主板/002081-金螳螂.xlsx
@@ -451,351 +451,471 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8866</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>001583</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>安信新常态沪港深精选股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>94.39</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.85</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6383</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证基建工程指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4851</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>165525</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚中证基建工程指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3695</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>001185</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>安信动态策略灵活配置混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>35.95</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005223</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发中证基建工程指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>35.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005224</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发中证基建工程指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>165525</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>信诚中证基建工程指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006818</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信盈利驱动股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>93.03</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006819</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>安信盈利驱动股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002029</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>安信动态策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>35.95</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005270</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>太平改革红利精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>84.49</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005587</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>安信比较优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008477</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信价值驱动三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>91.98</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001583</t>
+          <t>005223</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信新常态沪港深精选股票</t>
+          <t>广发中证基建工程指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001914</t>
+          <t>005224</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投聚利混合A</t>
+          <t>广发中证基建工程指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39.92</t>
+          <t>14.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4584</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006845</t>
+          <t>165525</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信建投聚利混合C</t>
+          <t>信诚中证基建工程指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>39.92</t>
+          <t>11.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3593</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001208</t>
+          <t>006615</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安低碳经济股票A</t>
+          <t>工银瑞信战略新兴产业混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>17.96</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3538</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010349</t>
+          <t>010328</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺安低碳经济股票C</t>
+          <t>博时荣华灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3409</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -996,15 +1176,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>45.49</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.98</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2770</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009217</t>
+          <t>001583</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+          <t>安信新常态沪港深精选股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.98</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009218</t>
+          <t>001208</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+          <t>诺安低碳经济股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.98</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>233011</t>
+          <t>009217</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大摩主题优选混合</t>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010328</t>
+          <t>163822</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时荣华灵活配置混合A</t>
+          <t>中银主题策略混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>78.53</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010329</t>
+          <t>008477</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时荣华灵活配置混合C</t>
+          <t>安信价值驱动三年持有期混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>78.53</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>165525</t>
+          <t>002510</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>信诚中证基建工程指数（LOF）</t>
+          <t>申万菱信中证500指数增强A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>320020</t>
+          <t>233011</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>诺安策略精选股票</t>
+          <t>大摩主题优选混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>83.37</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006615</t>
+          <t>006616</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>工银瑞信战略新兴产业混合A</t>
+          <t>工银瑞信战略新兴产业混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>86.12</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1.97</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006616</t>
+          <t>320020</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>工银瑞信战略新兴产业混合C</t>
+          <t>诺安策略精选股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>86.12</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001797</t>
+          <t>007795</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华融新利灵活配置混合</t>
+          <t>申万菱信中证500指数增强C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>55.59</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>750005</t>
+          <t>005418</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>安信平稳增长混合A</t>
+          <t>申万菱信量化驱动混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>53.58</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002035</t>
+          <t>010329</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>安信平稳增长混合C</t>
+          <t>博时荣华灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>53.58</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002510</t>
+          <t>009218</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数增强A</t>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>82.10</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007795</t>
+          <t>010349</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数增强C</t>
+          <t>诺安低碳经济股票C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>82.10</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005223</t>
+          <t>001914</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数A</t>
+          <t>中信建投聚利混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005224</t>
+          <t>750005</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>广发中证基建工程指数C</t>
+          <t>安信平稳增长混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
+          <t>53.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>005418</t>
+          <t>006845</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>申万菱信量化驱动混合</t>
+          <t>中信建投聚利混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>5</v>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008477</t>
+          <t>002035</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>安信价值驱动三年持有期混合</t>
+          <t>安信平稳增长混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>88.66</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>53.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>163822</t>
+          <t>001797</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中银主题策略混合</t>
+          <t>华融新利灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
+          <t>55.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002081-金螳螂.xlsx
+++ b/数据整理/stocks/A股/深证主板/002081-金螳螂.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1923,4 +1924,324 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3172</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002081-金螳螂.xlsx
+++ b/数据整理/stocks/A股/深证主板/002081-金螳螂.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2244,4 +2245,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002081-金螳螂.xlsx
+++ b/数据整理/stocks/A股/深证主板/002081-金螳螂.xlsx
@@ -2269,12 +2269,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002081-金螳螂.xlsx
+++ b/数据整理/stocks/A股/深证主板/002081-金螳螂.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005223</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证基建工程指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8866</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001583</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>安信新常态沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.16</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6383</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.71</v>
       </c>
     </row>
     <row r="4">
@@ -580,340 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005224</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发中证基建工程指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4851</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>165525</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>信诚中证基建工程指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.68</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3695</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001185</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信动态策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>35.95</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1520</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006818</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信盈利驱动股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1095</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008477</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>安信价值驱动三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.98</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1045</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002029</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>安信动态策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>35.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1037</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005587</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信比较优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1023</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005270</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>太平改革红利精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>84.49</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0875</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006819</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信盈利驱动股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.05</v>
       </c>
     </row>
   </sheetData>
@@ -922,6 +532,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3172</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1927,13 +1857,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1984,36 +1914,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010328</t>
+          <t>005223</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时荣华灵活配置混合A</t>
+          <t>广发中证基建工程指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>25.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3172</t>
+          <t>0.8866</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2022,36 +1952,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001208</t>
+          <t>001583</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安低碳经济股票A</t>
+          <t>安信新常态沪港深精选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.25</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2615</t>
+          <t>0.6383</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2060,36 +1990,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009217</t>
+          <t>005224</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+          <t>广发中证基建工程指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>14.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1585</t>
+          <t>0.4851</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2098,36 +2028,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>320020</t>
+          <t>165525</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安策略精选股票</t>
+          <t>信诚中证基建工程指数（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>10.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.78</t>
+          <t>94.32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0347</t>
+          <t>0.3695</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2136,36 +2066,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010329</t>
+          <t>001185</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时荣华灵活配置混合C</t>
+          <t>安信动态策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.99</t>
+          <t>35.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.1520</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2174,36 +2104,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009218</t>
+          <t>006818</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+          <t>安信盈利驱动股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>93.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0082</t>
+          <t>0.1095</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2212,118 +2142,188 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010349</t>
+          <t>008477</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>诺安低碳经济股票C</t>
+          <t>安信价值驱动三年持有期混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.25</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.71</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.05</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>35.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002081-金螳螂.xlsx
+++ b/数据整理/stocks/A股/深证主板/002081-金螳螂.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.79</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>3.71</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>3.05</v>
       </c>
     </row>
@@ -532,6 +549,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159617</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证智选500价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -851,7 +1038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1857,7 +2044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002081-金螳螂.xlsx
+++ b/数据整理/stocks/A股/深证主板/002081-金螳螂.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.79</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>3.71</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.05</v>
       </c>
     </row>
@@ -549,6 +566,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159617</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证智选500价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -718,7 +829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1038,7 +1149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2044,7 +2155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
